--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Artn</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -534,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.121263666666667</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H2">
         <v>3.363791</v>
       </c>
       <c r="I2">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="J2">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.7449415</v>
+        <v>0.5936135</v>
       </c>
       <c r="N2">
-        <v>7.489883000000001</v>
+        <v>1.187227</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>4.199066837742167</v>
+        <v>0.6655972495928332</v>
       </c>
       <c r="R2">
-        <v>25.194401026453</v>
+        <v>3.993583497557</v>
       </c>
       <c r="S2">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="T2">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.170975</v>
+        <v>0.127615</v>
       </c>
       <c r="H3">
-        <v>2.34195</v>
+        <v>0.25523</v>
       </c>
       <c r="I3">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="J3">
-        <v>0.3873938490071291</v>
+        <v>0.07052459767434344</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.7449415</v>
+        <v>0.5936135</v>
       </c>
       <c r="N3">
-        <v>7.489883000000001</v>
+        <v>1.187227</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,78 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>4.385232872962501</v>
+        <v>0.07575398680250001</v>
       </c>
       <c r="R3">
-        <v>17.54093149185</v>
+        <v>0.30301594721</v>
       </c>
       <c r="S3">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="T3">
-        <v>0.3873938490071291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.113219</v>
-      </c>
-      <c r="H4">
-        <v>0.339657</v>
-      </c>
-      <c r="I4">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="J4">
-        <v>0.05618439017579985</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.7449415</v>
-      </c>
-      <c r="N4">
-        <v>7.489883000000001</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.4239985316885001</v>
-      </c>
-      <c r="R4">
-        <v>2.543991190131</v>
-      </c>
-      <c r="S4">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="T4">
-        <v>0.05618439017579985</v>
+        <v>0.07052459767434344</v>
       </c>
     </row>
   </sheetData>
